--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2042.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2042.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155240007626966</v>
+        <v>1.271733999252319</v>
       </c>
       <c r="B1">
-        <v>2.441125225822838</v>
+        <v>1.86004102230072</v>
       </c>
       <c r="C1">
-        <v>5.955981347580987</v>
+        <v>5.628185749053955</v>
       </c>
       <c r="D1">
-        <v>2.401754641094588</v>
+        <v>1.939043521881104</v>
       </c>
       <c r="E1">
-        <v>1.214532711999656</v>
+        <v>1.116713047027588</v>
       </c>
     </row>
   </sheetData>
